--- a/Projects/CCRU_SAND/Data/KPIs_2020/POS_VALIDATION/OUTPUT/PoS 2020 - IC.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2020/POS_VALIDATION/OUTPUT/PoS 2020 - IC.xlsx
@@ -11,7 +11,7 @@
     <sheet name="ALL" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$965</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$964</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$964</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -63638,7 +63638,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AZ965"/>
+  <autoFilter ref="A1:AZ964"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
